--- a/writesheet.xlsx
+++ b/writesheet.xlsx
@@ -2,12 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
-  <workbookProtection lockRevision="true"/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Objects" r:id="rId3" sheetId="1"/>
+    <sheet name="DataObjects" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -41,7 +40,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -49,13 +48,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,63 +89,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.9453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.9453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="17.7109375" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1">
+      <c r="A2" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="1">
+      <c r="B2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="1">
+      <c r="C2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="1">
+      <c r="D2" t="s" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1">
+      <c r="A3" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="1">
+      <c r="B3" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="1">
+      <c r="C3" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="1">
+      <c r="D3" t="s" s="3">
         <v>6</v>
       </c>
     </row>
